--- a/MO.xlsx
+++ b/MO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neelas2\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06648BA5-B45D-4CA0-A1FB-83F687DE32C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9248D8-DC9B-4D29-AA63-79F35CE9A7E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1090C11F-EF89-45E4-BE01-9CAF919430EB}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Day</t>
   </si>
@@ -50,12 +50,15 @@
   <si>
     <t>39-Day-EMA</t>
   </si>
+  <si>
+    <t>MO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,16 +72,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12.1"/>
+      <color rgb="FF000000"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE0E0E0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -86,24 +102,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFACA99F"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFACA99F"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFACA99F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border outline="0">
+        <top style="medium">
+          <color rgb="FFACA99F"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FFACA99F"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -140,20 +189,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color rgb="FFACA99F"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color rgb="FFACA99F"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -168,14 +203,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4B4201E0-2AB2-41C0-9E91-9C05D342B4DD}" name="Table1" displayName="Table1" ref="A1:F1048576" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="3" tableBorderDxfId="4">
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{AAA81F28-1623-438A-A4AD-E46D644F9DC3}" name="Day" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4B4201E0-2AB2-41C0-9E91-9C05D342B4DD}" name="Table1" displayName="Table1" ref="A1:G1048576" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{AAA81F28-1623-438A-A4AD-E46D644F9DC3}" name="Day" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{F3E93A61-E130-44C0-BE45-1D1F788DF2FD}" name="Advances"/>
     <tableColumn id="3" xr3:uid="{D00E8F39-60BE-4578-9F40-0FE8522640EE}" name="Declines"/>
     <tableColumn id="4" xr3:uid="{2EEA28FE-2F44-4D5C-9825-EDF72D9EB523}" name="Advance/Decline Ratio" dataDxfId="1"/>
     <tableColumn id="9" xr3:uid="{5942EF33-3A07-47D7-9D58-5B5DE4EBDE29}" name="19-Day-EMA"/>
     <tableColumn id="10" xr3:uid="{A76A5486-8181-4B34-9B0A-6BDF7F7C15BC}" name="39-Day-EMA"/>
+    <tableColumn id="5" xr3:uid="{C6F9063B-E133-43B0-AD7F-89CFB6726699}" name="MO" dataDxfId="0">
+      <calculatedColumnFormula>Table1[[#This Row],[39-Day-EMA]]-Table1[[#This Row],[19-Day-EMA]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -478,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6388144B-9BC3-44EB-A9A4-5152115B4539}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,7 +528,7 @@
     <col min="4" max="4" width="27.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -509,8 +547,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43770</v>
       </c>
@@ -521,10 +562,11 @@
         <v>791</v>
       </c>
       <c r="D2">
-        <v>1.36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <f>(Table1[[#This Row],[Advances]]-Table1[[#This Row],[Declines]]/Table1[[#This Row],[Advances]]+Table1[[#This Row],[Declines]])</f>
+        <v>1864.2635009310986</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43773</v>
       </c>
@@ -535,10 +577,11 @@
         <v>774</v>
       </c>
       <c r="D3">
-        <v>1.39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <f>(Table1[[#This Row],[Advances]]-Table1[[#This Row],[Declines]]/Table1[[#This Row],[Advances]]+Table1[[#This Row],[Declines]])</f>
+        <v>1848.28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43774</v>
       </c>
@@ -549,10 +592,11 @@
         <v>1147</v>
       </c>
       <c r="D4">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <f>(Table1[[#This Row],[Advances]]-Table1[[#This Row],[Declines]]/Table1[[#This Row],[Advances]]+Table1[[#This Row],[Declines]])</f>
+        <v>1835.3376811594203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43775</v>
       </c>
@@ -563,10 +607,11 @@
         <v>940</v>
       </c>
       <c r="D5">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <f>(Table1[[#This Row],[Advances]]-Table1[[#This Row],[Declines]]/Table1[[#This Row],[Advances]]+Table1[[#This Row],[Declines]])</f>
+        <v>1829.9450056116723</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43776</v>
       </c>
@@ -577,10 +622,11 @@
         <v>884</v>
       </c>
       <c r="D6">
-        <v>1.07</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <f>(Table1[[#This Row],[Advances]]-Table1[[#This Row],[Declines]]/Table1[[#This Row],[Advances]]+Table1[[#This Row],[Declines]])</f>
+        <v>1828.0645502645502</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43777</v>
       </c>
@@ -591,10 +637,11 @@
         <v>1134</v>
       </c>
       <c r="D7">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <f>(Table1[[#This Row],[Advances]]-Table1[[#This Row],[Declines]]/Table1[[#This Row],[Advances]]+Table1[[#This Row],[Declines]])</f>
+        <v>1816.3421052631579</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43780</v>
       </c>
@@ -605,10 +652,11 @@
         <v>954</v>
       </c>
       <c r="D8">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <f>(Table1[[#This Row],[Advances]]-Table1[[#This Row],[Declines]]/Table1[[#This Row],[Advances]]+Table1[[#This Row],[Declines]])</f>
+        <v>1834.9183673469388</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43782</v>
       </c>
@@ -619,10 +667,11 @@
         <v>1175</v>
       </c>
       <c r="D9">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <f>(Table1[[#This Row],[Advances]]-Table1[[#This Row],[Declines]]/Table1[[#This Row],[Advances]]+Table1[[#This Row],[Declines]])</f>
+        <v>1852.2695139911634</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43783</v>
       </c>
@@ -633,10 +682,11 @@
         <v>1133</v>
       </c>
       <c r="D10">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <f>(Table1[[#This Row],[Advances]]-Table1[[#This Row],[Declines]]/Table1[[#This Row],[Advances]]+Table1[[#This Row],[Declines]])</f>
+        <v>1842.4064697609001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43784</v>
       </c>
@@ -647,10 +697,11 @@
         <v>1042</v>
       </c>
       <c r="D11">
-        <v>0.81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <f>(Table1[[#This Row],[Advances]]-Table1[[#This Row],[Declines]]/Table1[[#This Row],[Advances]]+Table1[[#This Row],[Declines]])</f>
+        <v>1884.7654028436018</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43787</v>
       </c>
@@ -661,10 +712,11 @@
         <v>1019</v>
       </c>
       <c r="D12">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <f>(Table1[[#This Row],[Advances]]-Table1[[#This Row],[Declines]]/Table1[[#This Row],[Advances]]+Table1[[#This Row],[Declines]])</f>
+        <v>1864.7969303423849</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43788</v>
       </c>
@@ -675,10 +727,11 @@
         <v>987</v>
       </c>
       <c r="D13">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <f>(Table1[[#This Row],[Advances]]-Table1[[#This Row],[Declines]]/Table1[[#This Row],[Advances]]+Table1[[#This Row],[Declines]])</f>
+        <v>1840.8456140350877</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43789</v>
       </c>
@@ -689,10 +742,11 @@
         <v>967</v>
       </c>
       <c r="D14">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <f>(Table1[[#This Row],[Advances]]-Table1[[#This Row],[Declines]]/Table1[[#This Row],[Advances]]+Table1[[#This Row],[Declines]])</f>
+        <v>1851.9085778781039</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43790</v>
       </c>
@@ -703,10 +757,11 @@
         <v>1099</v>
       </c>
       <c r="D15">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <f>(Table1[[#This Row],[Advances]]-Table1[[#This Row],[Declines]]/Table1[[#This Row],[Advances]]+Table1[[#This Row],[Declines]])</f>
+        <v>1827.4945205479453</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43791</v>
       </c>
@@ -717,10 +772,11 @@
         <v>961</v>
       </c>
       <c r="D16">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <f>(Table1[[#This Row],[Advances]]-Table1[[#This Row],[Declines]]/Table1[[#This Row],[Advances]]+Table1[[#This Row],[Declines]])</f>
+        <v>1805.8640661938534</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43794</v>
       </c>
@@ -731,10 +787,11 @@
         <v>768</v>
       </c>
       <c r="D17">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <f>(Table1[[#This Row],[Advances]]-Table1[[#This Row],[Declines]]/Table1[[#This Row],[Advances]]+Table1[[#This Row],[Declines]])</f>
+        <v>1872.3049773755656</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43795</v>
       </c>
@@ -745,10 +802,11 @@
         <v>1098</v>
       </c>
       <c r="D18">
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <f>(Table1[[#This Row],[Advances]]-Table1[[#This Row],[Declines]]/Table1[[#This Row],[Advances]]+Table1[[#This Row],[Declines]])</f>
+        <v>1849.5418326693227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43796</v>
       </c>
@@ -759,10 +817,11 @@
         <v>894</v>
       </c>
       <c r="D19">
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <f>(Table1[[#This Row],[Advances]]-Table1[[#This Row],[Declines]]/Table1[[#This Row],[Advances]]+Table1[[#This Row],[Declines]])</f>
+        <v>1825.0407725321888</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43797</v>
       </c>
@@ -773,10 +832,15 @@
         <v>869</v>
       </c>
       <c r="D20">
-        <v>1.1200000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <f>(Table1[[#This Row],[Advances]]-Table1[[#This Row],[Declines]]/Table1[[#This Row],[Advances]]+Table1[[#This Row],[Declines]])</f>
+        <v>1839.1050463439751</v>
+      </c>
+      <c r="E20">
+        <f>AVERAGE(D2:D20)</f>
+        <v>1842.8155228995222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43798</v>
       </c>
@@ -787,10 +851,15 @@
         <v>934</v>
       </c>
       <c r="D21">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <f>(Table1[[#This Row],[Advances]]-Table1[[#This Row],[Declines]]/Table1[[#This Row],[Advances]]+Table1[[#This Row],[Declines]])</f>
+        <v>1808.933789954338</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ref="E21:E84" si="0">AVERAGE(D3:D21)</f>
+        <v>1839.9034328481139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43801</v>
       </c>
@@ -801,10 +870,15 @@
         <v>1134</v>
       </c>
       <c r="D22">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <f>(Table1[[#This Row],[Advances]]-Table1[[#This Row],[Declines]]/Table1[[#This Row],[Advances]]+Table1[[#This Row],[Declines]])</f>
+        <v>1843.4050632911392</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>1839.6468572318581</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43802</v>
       </c>
@@ -815,10 +889,15 @@
         <v>1264</v>
       </c>
       <c r="D23">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <f>(Table1[[#This Row],[Advances]]-Table1[[#This Row],[Declines]]/Table1[[#This Row],[Advances]]+Table1[[#This Row],[Declines]])</f>
+        <v>1834.7940663176264</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>1839.6182459243955</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43803</v>
       </c>
@@ -829,10 +908,15 @@
         <v>839</v>
       </c>
       <c r="D24">
-        <v>1.18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <f>(Table1[[#This Row],[Advances]]-Table1[[#This Row],[Declines]]/Table1[[#This Row],[Advances]]+Table1[[#This Row],[Declines]])</f>
+        <v>1830.1542338709678</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>1839.6292579380427</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43804</v>
       </c>
@@ -843,10 +927,15 @@
         <v>1033</v>
       </c>
       <c r="D25">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <f>(Table1[[#This Row],[Advances]]-Table1[[#This Row],[Declines]]/Table1[[#This Row],[Advances]]+Table1[[#This Row],[Declines]])</f>
+        <v>1822.6940581542351</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>1839.3466004585525</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43805</v>
       </c>
@@ -857,10 +946,15 @@
         <v>1316</v>
       </c>
       <c r="D26">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <f>(Table1[[#This Row],[Advances]]-Table1[[#This Row],[Declines]]/Table1[[#This Row],[Advances]]+Table1[[#This Row],[Declines]])</f>
+        <v>1840.5028462998102</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>1840.6182184078498</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43808</v>
       </c>
@@ -871,10 +965,15 @@
         <v>1116</v>
       </c>
       <c r="D27">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <f>(Table1[[#This Row],[Advances]]-Table1[[#This Row],[Declines]]/Table1[[#This Row],[Advances]]+Table1[[#This Row],[Declines]])</f>
+        <v>1849.4816326530613</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>1841.3847060555406</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43809</v>
       </c>
@@ -885,10 +984,15 @@
         <v>1357</v>
       </c>
       <c r="D28">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <f>(Table1[[#This Row],[Advances]]-Table1[[#This Row],[Declines]]/Table1[[#This Row],[Advances]]+Table1[[#This Row],[Declines]])</f>
+        <v>1854.2860000000001</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>1841.4908368981112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43810</v>
       </c>
@@ -899,10 +1003,15 @@
         <v>1123</v>
       </c>
       <c r="D29">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <f>(Table1[[#This Row],[Advances]]-Table1[[#This Row],[Declines]]/Table1[[#This Row],[Advances]]+Table1[[#This Row],[Declines]])</f>
+        <v>1817.3864942528735</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>1840.1739960818988</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43811</v>
       </c>
@@ -913,10 +1022,15 @@
         <v>744</v>
       </c>
       <c r="D30">
-        <v>1.45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <f>(Table1[[#This Row],[Advances]]-Table1[[#This Row],[Declines]]/Table1[[#This Row],[Advances]]+Table1[[#This Row],[Declines]])</f>
+        <v>1824.3117483811286</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>1836.9922247944005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43812</v>
       </c>
@@ -927,10 +1041,15 @@
         <v>629</v>
       </c>
       <c r="D31">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <f>(Table1[[#This Row],[Advances]]-Table1[[#This Row],[Declines]]/Table1[[#This Row],[Advances]]+Table1[[#This Row],[Declines]])</f>
+        <v>1825.4745196324143</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>1834.9226242307177</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43815</v>
       </c>
@@ -941,10 +1060,15 @@
         <v>1035</v>
       </c>
       <c r="D32">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <f>(Table1[[#This Row],[Advances]]-Table1[[#This Row],[Declines]]/Table1[[#This Row],[Advances]]+Table1[[#This Row],[Declines]])</f>
+        <v>1864.7545126353791</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>1836.1809873149434</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43816</v>
       </c>
@@ -954,11 +1078,16 @@
       <c r="C33">
         <v>755</v>
       </c>
-      <c r="D33" s="2">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <f>(Table1[[#This Row],[Advances]]-Table1[[#This Row],[Declines]]/Table1[[#This Row],[Advances]]+Table1[[#This Row],[Declines]])</f>
+        <v>1827.2963653308482</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>1834.8856077071932</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43817</v>
       </c>
@@ -968,11 +1097,16 @@
       <c r="C34">
         <v>966</v>
       </c>
-      <c r="D34" s="2">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <f>(Table1[[#This Row],[Advances]]-Table1[[#This Row],[Declines]]/Table1[[#This Row],[Advances]]+Table1[[#This Row],[Declines]])</f>
+        <v>1820.8714953271028</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>1834.5370274324125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43818</v>
       </c>
@@ -982,11 +1116,16 @@
       <c r="C35">
         <v>863</v>
       </c>
-      <c r="D35" s="2">
-        <v>1.08</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <f>(Table1[[#This Row],[Advances]]-Table1[[#This Row],[Declines]]/Table1[[#This Row],[Advances]]+Table1[[#This Row],[Declines]])</f>
+        <v>1792.0720430107526</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>1833.8111314754067</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43819</v>
       </c>
@@ -996,11 +1135,16 @@
       <c r="C36">
         <v>938</v>
       </c>
-      <c r="D36" s="2">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <f>(Table1[[#This Row],[Advances]]-Table1[[#This Row],[Declines]]/Table1[[#This Row],[Advances]]+Table1[[#This Row],[Declines]])</f>
+        <v>1824.9436936936936</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>1831.3184323342557</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43822</v>
       </c>
@@ -1010,11 +1154,16 @@
       <c r="C37">
         <v>1020</v>
       </c>
-      <c r="D37" s="2">
-        <v>0.81</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <f>(Table1[[#This Row],[Advances]]-Table1[[#This Row],[Declines]]/Table1[[#This Row],[Advances]]+Table1[[#This Row],[Declines]])</f>
+        <v>1844.7651331719128</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>1831.0670270975495</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43823</v>
       </c>
@@ -1024,11 +1173,16 @@
       <c r="C38">
         <v>999</v>
       </c>
-      <c r="D38" s="2">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <f>(Table1[[#This Row],[Advances]]-Table1[[#This Row],[Declines]]/Table1[[#This Row],[Advances]]+Table1[[#This Row],[Declines]])</f>
+        <v>1825.7934782608695</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>1831.1066431885333</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43825</v>
       </c>
@@ -1038,11 +1192,16 @@
       <c r="C39">
         <v>852</v>
       </c>
-      <c r="D39" s="2">
-        <v>1.1599999999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <f>(Table1[[#This Row],[Advances]]-Table1[[#This Row],[Declines]]/Table1[[#This Row],[Advances]]+Table1[[#This Row],[Declines]])</f>
+        <v>1838.1367781155016</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>1831.0556817028241</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43826</v>
       </c>
@@ -1052,11 +1211,24 @@
       <c r="C40">
         <v>703</v>
       </c>
-      <c r="D40" s="2">
-        <v>1.62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <f>(Table1[[#This Row],[Advances]]-Table1[[#This Row],[Declines]]/Table1[[#This Row],[Advances]]+Table1[[#This Row],[Declines]])</f>
+        <v>1839.381706244503</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>1832.6582036128327</v>
+      </c>
+      <c r="F40">
+        <f>AVERAGE(D2:D40)</f>
+        <v>1836.9983229151044</v>
+      </c>
+      <c r="G40">
+        <f>(Table1[[#This Row],[39-Day-EMA]]-Table1[[#This Row],[19-Day-EMA]])*10</f>
+        <v>43.401193022716598</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43829</v>
       </c>
@@ -1066,11 +1238,24 @@
       <c r="C41">
         <v>778</v>
       </c>
-      <c r="D41" s="2">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <f>(Table1[[#This Row],[Advances]]-Table1[[#This Row],[Declines]]/Table1[[#This Row],[Advances]]+Table1[[#This Row],[Declines]])</f>
+        <v>1866.285583103765</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>1833.8624414977078</v>
+      </c>
+      <c r="F41">
+        <f t="shared" ref="F41:F42" si="1">AVERAGE(D3:D41)</f>
+        <v>1837.0501711759421</v>
+      </c>
+      <c r="G41">
+        <f>(Table1[[#This Row],[39-Day-EMA]]-Table1[[#This Row],[19-Day-EMA]])*10</f>
+        <v>31.87729678234291</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43830</v>
       </c>
@@ -1080,36 +1265,49 @@
       <c r="C42">
         <v>854</v>
       </c>
-      <c r="D42" s="2">
-        <v>1.1299999999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <f>(Table1[[#This Row],[Advances]]-Table1[[#This Row],[Declines]]/Table1[[#This Row],[Advances]]+Table1[[#This Row],[Declines]])</f>
+        <v>1815.1122661122661</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>1832.826557276373</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="1"/>
+        <v>1836.199716460872</v>
+      </c>
+      <c r="G42">
+        <f>(Table1[[#This Row],[39-Day-EMA]]-Table1[[#This Row],[19-Day-EMA]])*10</f>
+        <v>33.731591844989453</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>44166</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44167</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44168</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44169</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44172</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>44173</v>
       </c>
